--- a/Archivos/04.-Captura de entrega Théa Abril_2023 (5).xlsx
+++ b/Archivos/04.-Captura de entrega Théa Abril_2023 (5).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isai.jimenez\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alumnouaemex-my.sharepoint.com/personal/jrojasf001_alumno_uaemex_mx/Documents/Desktop/Parser/ParserThea/Archivos/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82C0A520-814B-4E30-AAE6-B6F4C98D507D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="825" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="825" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fragua_05_04_2023" sheetId="572" r:id="rId1"/>
@@ -880,9 +880,6 @@
     <xf numFmtId="0" fontId="3" fillId="41" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="42" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -890,6 +887,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="22" fillId="42" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1249,20 +1249,20 @@
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5546875" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5703125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="50" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="14.5546875" style="1"/>
+    <col min="10" max="16384" width="14.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1754,10 +1754,10 @@
       <c r="I17" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="J17" s="30" t="s">
+      <c r="J17" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="K17" s="30"/>
+      <c r="K17" s="33"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="12">
@@ -1787,8 +1787,8 @@
       <c r="I18" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="12">
@@ -1818,8 +1818,8 @@
       <c r="I19" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="33"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="12">
@@ -1849,8 +1849,8 @@
       <c r="I20" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="33"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="12">
@@ -1880,14 +1880,14 @@
       <c r="I21" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="J21" s="30"/>
-      <c r="K21" s="30"/>
-    </row>
-    <row r="22" spans="1:11" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="J21" s="33"/>
+      <c r="K21" s="33"/>
+    </row>
+    <row r="22" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="D22" s="17"/>
       <c r="E22" s="17"/>
     </row>
-    <row r="23" spans="1:11" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="D23" s="17"/>
       <c r="E23" s="17"/>
     </row>
@@ -1913,20 +1913,20 @@
       <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5546875" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5703125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="50" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="14.5546875" style="1"/>
+    <col min="10" max="16384" width="14.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2100,7 +2100,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <v>2201086</v>
       </c>
@@ -2274,7 +2274,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <v>980744857</v>
       </c>
@@ -2612,20 +2612,20 @@
       <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5546875" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5703125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="50" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="14.5546875" style="1"/>
+    <col min="10" max="16384" width="14.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3553,7 +3553,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="4:5" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="34" spans="4:5" ht="15" x14ac:dyDescent="0.2">
       <c r="D34" s="17" t="s">
         <v>16</v>
       </c>
@@ -3561,7 +3561,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="4:5" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="35" spans="4:5" ht="15" x14ac:dyDescent="0.2">
       <c r="D35" s="17" t="s">
         <v>21</v>
       </c>
@@ -3569,7 +3569,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="4:5" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="36" spans="4:5" ht="15" x14ac:dyDescent="0.2">
       <c r="D36" s="17">
         <v>625464</v>
       </c>
@@ -3577,7 +3577,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="4:5" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="37" spans="4:5" ht="15" x14ac:dyDescent="0.2">
       <c r="D37" s="17" t="s">
         <v>24</v>
       </c>
@@ -3585,7 +3585,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="4:5" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="38" spans="4:5" ht="15" x14ac:dyDescent="0.2">
       <c r="D38" s="17" t="s">
         <v>25</v>
       </c>
@@ -3593,7 +3593,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="4:5" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="39" spans="4:5" ht="15" x14ac:dyDescent="0.2">
       <c r="D39" s="17" t="s">
         <v>23</v>
       </c>
@@ -3620,20 +3620,20 @@
       <selection activeCell="A7" sqref="A7:XFD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5546875" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5703125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="49.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="14.5546875" style="1"/>
+    <col min="1" max="1" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="49.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="14.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3881,23 +3881,23 @@
   <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5546875" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5703125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="50" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="14.5546875" style="1"/>
+    <col min="10" max="16384" width="14.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -4071,7 +4071,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <v>2204504</v>
       </c>
@@ -4245,7 +4245,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <v>980746813</v>
       </c>
@@ -4536,31 +4536,31 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="31" t="s">
+      <c r="A23" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="31">
-        <v>1</v>
-      </c>
-      <c r="C23" s="32" t="s">
+      <c r="B23" s="30">
+        <v>1</v>
+      </c>
+      <c r="C23" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="32" t="s">
+      <c r="D23" s="31" t="s">
         <v>24</v>
       </c>
       <c r="E23" s="4">
         <v>20240831</v>
       </c>
-      <c r="F23" s="33">
+      <c r="F23" s="32">
         <v>1000</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H23" s="31" t="s">
+      <c r="H23" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="I23" s="31" t="s">
+      <c r="I23" s="30" t="s">
         <v>42</v>
       </c>
     </row>
